--- a/tut04/output_by_subject/ME503.csv.xlsx
+++ b/tut04/output_by_subject/ME503.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,6 +876,446 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2121ME20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2121ME02</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1801ME08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1801ME21</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1801ME34</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1801ME41</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1801ME42</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1801ME43</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1801ME54</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1801ME65</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021CB02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1801ME39</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1801ME11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Department Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1801ME16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2121CB07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1801ME45</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1801ME58</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1801ME60</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1801ME61</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1801ME27</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ME503</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
